--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>变量名称</t>
   </si>
@@ -239,18 +239,12 @@
     <t>运行模式</t>
   </si>
   <si>
-    <t>0：手动模式(停止)  1：自动模式(停止) 2：手动模式(开始) 3：自动模式(开始) 4：报警模式</t>
-  </si>
-  <si>
     <t>电机状态</t>
   </si>
   <si>
     <t>传感器1</t>
   </si>
   <si>
-    <t>0：无效  1：有效</t>
-  </si>
-  <si>
     <t>0：电机停止   1：电机启动</t>
   </si>
   <si>
@@ -405,6 +399,15 @@
   </si>
   <si>
     <t>手动模式 按钮 气缸5</t>
+  </si>
+  <si>
+    <t>0：无效  1：有效  3：错误</t>
+  </si>
+  <si>
+    <t>0：关闭  1：开启  3：错误</t>
+  </si>
+  <si>
+    <t>0：手动模式(停止)  1：自动模式(停止) 2：手动模式(启动) 3：自动模式(启动) 4：报警模式</t>
   </si>
 </sst>
 </file>
@@ -758,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +791,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,21 +799,21 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,21 +821,21 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,21 +843,21 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -862,21 +865,21 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,21 +887,21 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,21 +909,21 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,21 +931,21 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,21 +953,21 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,21 +975,21 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,21 +997,21 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,21 +1019,21 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
         <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,21 +1041,21 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1060,21 +1063,21 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,21 +1085,21 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,18 +1107,18 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1123,21 +1126,21 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,21 +1148,21 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
     <t>变量名称</t>
   </si>
@@ -408,6 +408,15 @@
   </si>
   <si>
     <t>0：手动模式(停止)  1：自动模式(停止) 2：手动模式(启动) 3：自动模式(启动) 4：报警模式</t>
+  </si>
+  <si>
+    <t>返回数据0xEE</t>
+  </si>
+  <si>
+    <t>0x0023</t>
+  </si>
+  <si>
+    <t>计件计数</t>
   </si>
 </sst>
 </file>
@@ -423,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,12 +464,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +987,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
@@ -982,7 +998,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B20" t="s">
@@ -993,7 +1009,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
@@ -1004,7 +1020,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B22" t="s">
@@ -1015,7 +1031,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B23" t="s">
@@ -1026,7 +1042,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B24" t="s">
@@ -1037,7 +1053,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
@@ -1103,11 +1119,14 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,6 +1182,17 @@
       </c>
       <c r="C36" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="133">
   <si>
     <t>变量名称</t>
   </si>
@@ -245,9 +245,6 @@
     <t>传感器1</t>
   </si>
   <si>
-    <t>0：电机停止   1：电机启动</t>
-  </si>
-  <si>
     <t>传感器2</t>
   </si>
   <si>
@@ -401,15 +398,6 @@
     <t>手动模式 按钮 气缸5</t>
   </si>
   <si>
-    <t>0：无效  1：有效  3：错误</t>
-  </si>
-  <si>
-    <t>0：关闭  1：开启  3：错误</t>
-  </si>
-  <si>
-    <t>0：手动模式(停止)  1：自动模式(停止) 2：手动模式(启动) 3：自动模式(启动) 4：报警模式</t>
-  </si>
-  <si>
     <t>返回数据0xEE</t>
   </si>
   <si>
@@ -417,16 +405,56 @@
   </si>
   <si>
     <t>计件计数</t>
+  </si>
+  <si>
+    <t>0：无效  1：有效  2：错误</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0：电机停止   1：电机启动  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>返回数据0xEE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0：手动模式(停止)  1：自动模式(停止) 2：手动模式(启动) 3：自动模式(启动) 4：报警模式  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>返回数据0xEE</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -464,13 +492,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,15 +806,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="93.140625" customWidth="1"/>
+    <col min="3" max="3" width="101.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +836,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,18 +847,18 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,21 +866,21 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,21 +888,21 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,21 +910,21 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,21 +932,21 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,21 +954,21 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,21 +976,21 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,109 +998,109 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,21 +1108,21 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,43 +1130,43 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" t="s">
-        <v>131</v>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,21 +1174,21 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1167,36 +1196,37 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>132</v>
+      <c r="A37" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1204,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1254,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
@@ -1235,7 +1265,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1274,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1283,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1262,7 +1292,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1301,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1310,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1319,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1298,7 +1328,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1307,7 +1337,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -1316,7 +1346,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1325,7 +1355,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1334,7 +1364,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1373,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1352,7 +1382,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -1361,7 +1391,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1370,7 +1400,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1409,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -1388,7 +1418,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -1397,7 +1427,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B21" t="s">
@@ -1408,7 +1438,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1417,7 +1447,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1456,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1465,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
   <si>
     <t>变量名称</t>
   </si>
@@ -426,7 +426,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">0：手动模式(停止)  1：自动模式(停止) 2：手动模式(启动) 3：自动模式(启动) 4：报警模式  </t>
+      <t xml:space="preserve">0：手动模式(停止)  1：自动模式(停止) 2：手动模式(启动) 3：自动模式(启动)   </t>
     </r>
     <r>
       <rPr>
@@ -438,6 +438,12 @@
       </rPr>
       <t>返回数据0xEE</t>
     </r>
+  </si>
+  <si>
+    <t>0x0024</t>
+  </si>
+  <si>
+    <t>解除警报按钮</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1160,7 @@
       <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1222,6 +1228,17 @@
       </c>
       <c r="C37" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1271,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
@@ -1265,7 +1282,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1291,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1283,7 +1300,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1309,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1318,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1327,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +1336,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1345,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1337,7 +1354,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -1346,7 +1363,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1355,7 +1372,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1381,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1390,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +1399,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1408,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1400,7 +1417,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -1409,7 +1426,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -1418,7 +1435,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -1427,7 +1444,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B21" t="s">
@@ -1438,7 +1455,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1447,7 +1464,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1473,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -1465,7 +1482,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
   <si>
     <t>变量名称</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>解除警报按钮</t>
+  </si>
+  <si>
+    <t>字(int) 最大9.9</t>
   </si>
 </sst>
 </file>
@@ -812,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1032,7 @@
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
